--- a/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan94.xlsx
@@ -387,8 +387,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA388"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
+      <selection activeCell="G170" sqref="G170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4237,6 +4237,9 @@
       <c r="F52">
         <v>8</v>
       </c>
+      <c r="G52">
+        <v>8</v>
+      </c>
       <c r="H52">
         <v>8</v>
       </c>
@@ -12828,6 +12831,9 @@
         <v>1</v>
       </c>
       <c r="F168">
+        <v>16</v>
+      </c>
+      <c r="G168">
         <v>16</v>
       </c>
       <c r="H168">

--- a/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan94.xlsx
+++ b/NRI_STLF_Data/WeatherData/T_hamedan/T_hamedan94.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\hkhatibzadeh\Load Forecasting\last data 95.7.6\WeatherData\T_hamedan\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="15135" windowHeight="8130"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="9">
   <si>
     <t>Rain</t>
   </si>
@@ -48,12 +53,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
       <scheme val="minor"/>
@@ -141,7 +146,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -176,7 +181,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -385,15 +390,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA388"/>
+  <dimension ref="A1:AA365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="A379" workbookViewId="0">
+      <selection activeCell="F400" sqref="F400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27">
       <c r="A1">
         <v>94</v>
       </c>
@@ -470,7 +475,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:27">
       <c r="A2">
         <v>94</v>
       </c>
@@ -550,7 +555,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3">
         <v>94</v>
       </c>
@@ -630,7 +635,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27">
       <c r="A4">
         <v>94</v>
       </c>
@@ -707,7 +712,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27">
       <c r="A5">
         <v>94</v>
       </c>
@@ -787,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27">
       <c r="A6">
         <v>94</v>
       </c>
@@ -867,7 +872,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27">
       <c r="A7">
         <v>94</v>
       </c>
@@ -944,7 +949,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27">
       <c r="A8">
         <v>94</v>
       </c>
@@ -1021,7 +1026,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27">
       <c r="A9">
         <v>94</v>
       </c>
@@ -1101,7 +1106,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27">
       <c r="A10">
         <v>94</v>
       </c>
@@ -1184,7 +1189,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27">
       <c r="A11">
         <v>94</v>
       </c>
@@ -1261,7 +1266,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27">
       <c r="A12">
         <v>94</v>
       </c>
@@ -1338,7 +1343,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27">
       <c r="A13">
         <v>94</v>
       </c>
@@ -1403,7 +1408,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27">
       <c r="A14">
         <v>94</v>
       </c>
@@ -1468,7 +1473,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27">
       <c r="A15">
         <v>94</v>
       </c>
@@ -1545,7 +1550,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27">
       <c r="A16">
         <v>94</v>
       </c>
@@ -1622,7 +1627,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27">
       <c r="A17">
         <v>94</v>
       </c>
@@ -1687,7 +1692,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27">
       <c r="A18">
         <v>94</v>
       </c>
@@ -1752,7 +1757,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27">
       <c r="A19">
         <v>94</v>
       </c>
@@ -1829,7 +1834,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27">
       <c r="A20">
         <v>94</v>
       </c>
@@ -1906,7 +1911,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27">
       <c r="A21">
         <v>94</v>
       </c>
@@ -1983,7 +1988,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27">
       <c r="A22">
         <v>94</v>
       </c>
@@ -2063,7 +2068,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27">
       <c r="A23">
         <v>94</v>
       </c>
@@ -2143,7 +2148,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24">
         <v>94</v>
       </c>
@@ -2223,7 +2228,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27">
       <c r="A25">
         <v>94</v>
       </c>
@@ -2300,7 +2305,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27">
       <c r="A26">
         <v>94</v>
       </c>
@@ -2377,7 +2382,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27">
       <c r="A27">
         <v>94</v>
       </c>
@@ -2454,7 +2459,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28">
         <v>94</v>
       </c>
@@ -2531,7 +2536,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29">
         <v>94</v>
       </c>
@@ -2608,7 +2613,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30">
         <v>94</v>
       </c>
@@ -2685,7 +2690,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31">
         <v>94</v>
       </c>
@@ -2750,7 +2755,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27">
       <c r="A32">
         <v>94</v>
       </c>
@@ -2830,7 +2835,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27">
       <c r="A33">
         <v>94</v>
       </c>
@@ -2910,7 +2915,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27">
       <c r="A34">
         <v>94</v>
       </c>
@@ -2987,7 +2992,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27">
       <c r="A35">
         <v>94</v>
       </c>
@@ -3064,7 +3069,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27">
       <c r="A36">
         <v>94</v>
       </c>
@@ -3141,7 +3146,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27">
       <c r="A37">
         <v>94</v>
       </c>
@@ -3206,7 +3211,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27">
       <c r="A38">
         <v>94</v>
       </c>
@@ -3271,7 +3276,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27">
       <c r="A39">
         <v>94</v>
       </c>
@@ -3297,7 +3302,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27">
       <c r="A40">
         <v>94</v>
       </c>
@@ -3371,7 +3376,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27">
       <c r="A41">
         <v>94</v>
       </c>
@@ -3448,7 +3453,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27">
       <c r="A42">
         <v>94</v>
       </c>
@@ -3528,7 +3533,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27">
       <c r="A43">
         <v>94</v>
       </c>
@@ -3608,7 +3613,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27">
       <c r="A44">
         <v>94</v>
       </c>
@@ -3688,7 +3693,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27">
       <c r="A45">
         <v>94</v>
       </c>
@@ -3765,7 +3770,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27">
       <c r="A46">
         <v>94</v>
       </c>
@@ -3842,7 +3847,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27">
       <c r="A47">
         <v>94</v>
       </c>
@@ -3919,7 +3924,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27">
       <c r="A48">
         <v>94</v>
       </c>
@@ -3996,7 +4001,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:27">
       <c r="A49">
         <v>94</v>
       </c>
@@ -4061,7 +4066,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27">
       <c r="A50">
         <v>94</v>
       </c>
@@ -4138,7 +4143,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:27">
       <c r="A51">
         <v>94</v>
       </c>
@@ -4218,7 +4223,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:27">
       <c r="A52">
         <v>94</v>
       </c>
@@ -4295,7 +4300,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:27">
       <c r="A53">
         <v>94</v>
       </c>
@@ -4372,7 +4377,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:27">
       <c r="A54">
         <v>94</v>
       </c>
@@ -4437,7 +4442,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:27">
       <c r="A55">
         <v>94</v>
       </c>
@@ -4514,7 +4519,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:27">
       <c r="A56">
         <v>94</v>
       </c>
@@ -4594,7 +4599,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:27">
       <c r="A57">
         <v>94</v>
       </c>
@@ -4671,7 +4676,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:27">
       <c r="A58">
         <v>94</v>
       </c>
@@ -4736,7 +4741,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:27">
       <c r="A59">
         <v>94</v>
       </c>
@@ -4813,7 +4818,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:27">
       <c r="A60">
         <v>94</v>
       </c>
@@ -4890,7 +4895,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:27">
       <c r="A61">
         <v>94</v>
       </c>
@@ -4967,7 +4972,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:27">
       <c r="A62">
         <v>94</v>
       </c>
@@ -5044,7 +5049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:27">
       <c r="A63">
         <v>94</v>
       </c>
@@ -5121,7 +5126,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:27">
       <c r="A64">
         <v>94</v>
       </c>
@@ -5198,7 +5203,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:27">
       <c r="A65">
         <v>94</v>
       </c>
@@ -5263,7 +5268,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:27">
       <c r="A66">
         <v>94</v>
       </c>
@@ -5340,7 +5345,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:27">
       <c r="A67">
         <v>94</v>
       </c>
@@ -5417,7 +5422,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:27">
       <c r="A68">
         <v>94</v>
       </c>
@@ -5494,7 +5499,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:27">
       <c r="A69">
         <v>94</v>
       </c>
@@ -5571,7 +5576,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:27">
       <c r="A70">
         <v>94</v>
       </c>
@@ -5648,7 +5653,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:27">
       <c r="A71">
         <v>94</v>
       </c>
@@ -5725,7 +5730,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:27">
       <c r="A72">
         <v>94</v>
       </c>
@@ -5802,7 +5807,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:27">
       <c r="A73">
         <v>94</v>
       </c>
@@ -5879,7 +5884,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:27">
       <c r="A74">
         <v>94</v>
       </c>
@@ -5956,7 +5961,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:27">
       <c r="A75">
         <v>94</v>
       </c>
@@ -6021,7 +6026,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:27">
       <c r="A76">
         <v>94</v>
       </c>
@@ -6098,7 +6103,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:27">
       <c r="A77">
         <v>94</v>
       </c>
@@ -6175,7 +6180,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:27">
       <c r="A78">
         <v>94</v>
       </c>
@@ -6252,7 +6257,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:27">
       <c r="A79">
         <v>94</v>
       </c>
@@ -6317,7 +6322,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:27">
       <c r="A80">
         <v>94</v>
       </c>
@@ -6394,7 +6399,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:27">
       <c r="A81">
         <v>94</v>
       </c>
@@ -6471,7 +6476,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:27">
       <c r="A82">
         <v>94</v>
       </c>
@@ -6548,7 +6553,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:27">
       <c r="A83">
         <v>94</v>
       </c>
@@ -6625,7 +6630,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:27">
       <c r="A84">
         <v>94</v>
       </c>
@@ -6690,7 +6695,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:27">
       <c r="A85">
         <v>94</v>
       </c>
@@ -6755,7 +6760,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:27">
       <c r="A86">
         <v>94</v>
       </c>
@@ -6820,7 +6825,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:27">
       <c r="A87">
         <v>94</v>
       </c>
@@ -6885,7 +6890,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:27">
       <c r="A88">
         <v>94</v>
       </c>
@@ -6950,7 +6955,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:27">
       <c r="A89">
         <v>94</v>
       </c>
@@ -7027,7 +7032,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:27">
       <c r="A90">
         <v>94</v>
       </c>
@@ -7104,7 +7109,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:27">
       <c r="A91">
         <v>94</v>
       </c>
@@ -7181,7 +7186,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:27">
       <c r="A92">
         <v>94</v>
       </c>
@@ -7246,7 +7251,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:27">
       <c r="A93">
         <v>94</v>
       </c>
@@ -7311,7 +7316,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:27">
       <c r="A94">
         <v>94</v>
       </c>
@@ -7376,7 +7381,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:27">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7441,7 +7446,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:27">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7515,7 +7520,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:27">
       <c r="A97">
         <v>94</v>
       </c>
@@ -7592,7 +7597,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:27">
       <c r="A98">
         <v>94</v>
       </c>
@@ -7666,7 +7671,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:27">
       <c r="A99">
         <v>94</v>
       </c>
@@ -7740,7 +7745,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:27">
       <c r="A100">
         <v>94</v>
       </c>
@@ -7817,7 +7822,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:27">
       <c r="A101">
         <v>94</v>
       </c>
@@ -7882,7 +7887,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:27">
       <c r="A102">
         <v>94</v>
       </c>
@@ -7959,7 +7964,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:27">
       <c r="A103">
         <v>94</v>
       </c>
@@ -8036,7 +8041,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:27">
       <c r="A104">
         <v>94</v>
       </c>
@@ -8113,7 +8118,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:27">
       <c r="A105">
         <v>94</v>
       </c>
@@ -8190,7 +8195,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:27">
       <c r="A106">
         <v>94</v>
       </c>
@@ -8267,7 +8272,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:27">
       <c r="A107">
         <v>94</v>
       </c>
@@ -8344,7 +8349,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:27">
       <c r="A108">
         <v>94</v>
       </c>
@@ -8421,7 +8426,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:27">
       <c r="A109">
         <v>94</v>
       </c>
@@ -8498,7 +8503,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:27">
       <c r="A110">
         <v>94</v>
       </c>
@@ -8575,7 +8580,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:27">
       <c r="A111">
         <v>94</v>
       </c>
@@ -8652,7 +8657,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:27">
       <c r="A112">
         <v>94</v>
       </c>
@@ -8729,7 +8734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="113" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:27">
       <c r="A113">
         <v>94</v>
       </c>
@@ -8806,7 +8811,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="114" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:27">
       <c r="A114">
         <v>94</v>
       </c>
@@ -8883,7 +8888,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="115" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:27">
       <c r="A115">
         <v>94</v>
       </c>
@@ -8960,7 +8965,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="116" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:27">
       <c r="A116">
         <v>94</v>
       </c>
@@ -9037,7 +9042,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="117" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:27">
       <c r="A117">
         <v>94</v>
       </c>
@@ -9114,7 +9119,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="118" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:27">
       <c r="A118">
         <v>94</v>
       </c>
@@ -9191,7 +9196,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="119" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:27">
       <c r="A119">
         <v>94</v>
       </c>
@@ -9268,7 +9273,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="120" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:27">
       <c r="A120">
         <v>94</v>
       </c>
@@ -9348,7 +9353,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="121" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:27">
       <c r="A121">
         <v>94</v>
       </c>
@@ -9428,7 +9433,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="122" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:27">
       <c r="A122">
         <v>94</v>
       </c>
@@ -9505,7 +9510,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="123" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:27">
       <c r="A123">
         <v>94</v>
       </c>
@@ -9582,7 +9587,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="124" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:27">
       <c r="A124">
         <v>94</v>
       </c>
@@ -9659,7 +9664,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="125" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:27">
       <c r="A125">
         <v>94</v>
       </c>
@@ -9736,7 +9741,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="126" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:27">
       <c r="A126">
         <v>94</v>
       </c>
@@ -9813,7 +9818,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="127" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:27">
       <c r="A127">
         <v>94</v>
       </c>
@@ -9890,7 +9895,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="128" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:27">
       <c r="A128">
         <v>94</v>
       </c>
@@ -9967,7 +9972,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:27">
       <c r="A129">
         <v>94</v>
       </c>
@@ -10044,7 +10049,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="130" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:27">
       <c r="A130">
         <v>94</v>
       </c>
@@ -10109,7 +10114,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="131" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:27">
       <c r="A131">
         <v>94</v>
       </c>
@@ -10186,7 +10191,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="132" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:27">
       <c r="A132">
         <v>94</v>
       </c>
@@ -10263,7 +10268,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="133" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:27">
       <c r="A133">
         <v>94</v>
       </c>
@@ -10340,7 +10345,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:27">
       <c r="A134">
         <v>94</v>
       </c>
@@ -10417,7 +10422,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="135" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:27">
       <c r="A135">
         <v>94</v>
       </c>
@@ -10494,7 +10499,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="136" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:27">
       <c r="A136">
         <v>94</v>
       </c>
@@ -10571,7 +10576,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="137" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:27">
       <c r="A137">
         <v>94</v>
       </c>
@@ -10648,7 +10653,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:27">
       <c r="A138">
         <v>94</v>
       </c>
@@ -10725,7 +10730,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="139" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:27">
       <c r="A139">
         <v>94</v>
       </c>
@@ -10802,7 +10807,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="140" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:27">
       <c r="A140">
         <v>94</v>
       </c>
@@ -10879,7 +10884,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="141" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:27">
       <c r="A141">
         <v>94</v>
       </c>
@@ -10956,7 +10961,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="142" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:27">
       <c r="A142">
         <v>94</v>
       </c>
@@ -11033,7 +11038,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="143" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:27">
       <c r="A143">
         <v>94</v>
       </c>
@@ -11110,7 +11115,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="144" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:27">
       <c r="A144">
         <v>94</v>
       </c>
@@ -11175,7 +11180,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="145" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:27">
       <c r="A145">
         <v>94</v>
       </c>
@@ -11252,7 +11257,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:27">
       <c r="A146">
         <v>94</v>
       </c>
@@ -11317,7 +11322,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="147" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:27">
       <c r="A147">
         <v>94</v>
       </c>
@@ -11382,7 +11387,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="148" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:27">
       <c r="A148">
         <v>94</v>
       </c>
@@ -11447,7 +11452,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="149" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:27">
       <c r="A149">
         <v>94</v>
       </c>
@@ -11524,7 +11529,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="150" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:27">
       <c r="A150">
         <v>94</v>
       </c>
@@ -11601,7 +11606,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="151" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:27">
       <c r="A151">
         <v>94</v>
       </c>
@@ -11666,7 +11671,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="152" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:27">
       <c r="A152">
         <v>94</v>
       </c>
@@ -11743,7 +11748,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="153" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:27">
       <c r="A153">
         <v>94</v>
       </c>
@@ -11808,7 +11813,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="154" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:27">
       <c r="A154">
         <v>94</v>
       </c>
@@ -11885,7 +11890,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="155" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:27">
       <c r="A155">
         <v>94</v>
       </c>
@@ -11950,7 +11955,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="156" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:27">
       <c r="A156">
         <v>94</v>
       </c>
@@ -12027,7 +12032,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="157" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:27">
       <c r="A157">
         <v>94</v>
       </c>
@@ -12092,7 +12097,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="158" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:27">
       <c r="A158">
         <v>94</v>
       </c>
@@ -12169,7 +12174,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="159" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:27">
       <c r="A159">
         <v>94</v>
       </c>
@@ -12234,7 +12239,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="160" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:27">
       <c r="A160">
         <v>94</v>
       </c>
@@ -12299,7 +12304,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="161" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:27">
       <c r="A161">
         <v>94</v>
       </c>
@@ -12364,7 +12369,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="162" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:27">
       <c r="A162">
         <v>94</v>
       </c>
@@ -12441,7 +12446,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="163" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:27">
       <c r="A163">
         <v>94</v>
       </c>
@@ -12518,7 +12523,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="164" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:27">
       <c r="A164">
         <v>94</v>
       </c>
@@ -12595,7 +12600,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="165" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:27">
       <c r="A165">
         <v>94</v>
       </c>
@@ -12672,7 +12677,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="166" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:27">
       <c r="A166">
         <v>94</v>
       </c>
@@ -12749,7 +12754,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="167" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:27">
       <c r="A167">
         <v>94</v>
       </c>
@@ -12814,7 +12819,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="168" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:27">
       <c r="A168">
         <v>94</v>
       </c>
@@ -12879,7 +12884,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:27">
       <c r="A169">
         <v>94</v>
       </c>
@@ -12956,7 +12961,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="170" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:27">
       <c r="A170">
         <v>94</v>
       </c>
@@ -13039,7 +13044,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="171" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:27">
       <c r="A171">
         <v>94</v>
       </c>
@@ -13116,7 +13121,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="172" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:27">
       <c r="A172">
         <v>94</v>
       </c>
@@ -13199,7 +13204,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="173" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:27">
       <c r="A173">
         <v>94</v>
       </c>
@@ -13276,7 +13281,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="174" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:27">
       <c r="A174">
         <v>94</v>
       </c>
@@ -13353,7 +13358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="175" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:27">
       <c r="A175">
         <v>94</v>
       </c>
@@ -13418,7 +13423,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="176" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:27">
       <c r="A176">
         <v>94</v>
       </c>
@@ -13495,7 +13500,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="177" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:27">
       <c r="A177">
         <v>94</v>
       </c>
@@ -13572,7 +13577,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="178" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:27">
       <c r="A178">
         <v>94</v>
       </c>
@@ -13649,7 +13654,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="179" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:27">
       <c r="A179">
         <v>94</v>
       </c>
@@ -13726,7 +13731,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="180" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:27">
       <c r="A180">
         <v>94</v>
       </c>
@@ -13806,7 +13811,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="181" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:27">
       <c r="A181">
         <v>94</v>
       </c>
@@ -13883,7 +13888,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="182" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:27">
       <c r="A182">
         <v>94</v>
       </c>
@@ -13960,7 +13965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:27">
       <c r="A183">
         <v>94</v>
       </c>
@@ -14037,7 +14042,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="184" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:27">
       <c r="A184">
         <v>94</v>
       </c>
@@ -14114,7 +14119,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="185" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:27">
       <c r="A185">
         <v>94</v>
       </c>
@@ -14179,7 +14184,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="186" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:27">
       <c r="A186">
         <v>94</v>
       </c>
@@ -14256,7 +14261,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="187" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:27">
       <c r="A187">
         <v>94</v>
       </c>
@@ -14321,7 +14326,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="188" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:27">
       <c r="A188">
         <v>94</v>
       </c>
@@ -14386,7 +14391,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="189" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:27">
       <c r="A189">
         <v>94</v>
       </c>
@@ -14451,7 +14456,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="190" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:27">
       <c r="A190">
         <v>94</v>
       </c>
@@ -14528,7 +14533,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="191" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:27">
       <c r="A191">
         <v>94</v>
       </c>
@@ -14605,7 +14610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="192" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:27">
       <c r="A192">
         <v>94</v>
       </c>
@@ -14685,7 +14690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="193" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:27">
       <c r="A193">
         <v>94</v>
       </c>
@@ -14762,7 +14767,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="194" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:27">
       <c r="A194">
         <v>94</v>
       </c>
@@ -14839,7 +14844,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="195" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:27">
       <c r="A195">
         <v>94</v>
       </c>
@@ -14919,7 +14924,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="196" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:27">
       <c r="A196">
         <v>94</v>
       </c>
@@ -14996,7 +15001,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="197" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:27">
       <c r="A197">
         <v>94</v>
       </c>
@@ -15073,7 +15078,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="198" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:27">
       <c r="A198">
         <v>94</v>
       </c>
@@ -15150,7 +15155,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="199" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:27">
       <c r="A199">
         <v>94</v>
       </c>
@@ -15227,7 +15232,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="200" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:27">
       <c r="A200">
         <v>94</v>
       </c>
@@ -15304,7 +15309,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="201" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:27">
       <c r="A201">
         <v>94</v>
       </c>
@@ -15381,7 +15386,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="202" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:27">
       <c r="A202">
         <v>94</v>
       </c>
@@ -15458,7 +15463,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="203" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:27">
       <c r="A203">
         <v>94</v>
       </c>
@@ -15535,7 +15540,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="204" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:27">
       <c r="A204">
         <v>94</v>
       </c>
@@ -15612,7 +15617,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="205" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:27">
       <c r="A205">
         <v>94</v>
       </c>
@@ -15677,7 +15682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:27">
       <c r="A206">
         <v>94</v>
       </c>
@@ -15742,7 +15747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="207" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:27">
       <c r="A207">
         <v>94</v>
       </c>
@@ -15807,7 +15812,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="208" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:27">
       <c r="A208">
         <v>94</v>
       </c>
@@ -15884,7 +15889,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="209" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:27">
       <c r="A209">
         <v>94</v>
       </c>
@@ -15961,7 +15966,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:27">
       <c r="A210">
         <v>94</v>
       </c>
@@ -16041,7 +16046,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="211" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:27">
       <c r="A211">
         <v>94</v>
       </c>
@@ -16118,7 +16123,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="212" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:27">
       <c r="A212">
         <v>94</v>
       </c>
@@ -16195,7 +16200,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="213" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:27">
       <c r="A213">
         <v>94</v>
       </c>
@@ -16260,7 +16265,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="214" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:27">
       <c r="A214">
         <v>94</v>
       </c>
@@ -16340,7 +16345,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="215" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:27">
       <c r="A215">
         <v>94</v>
       </c>
@@ -16417,7 +16422,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:27">
       <c r="A216">
         <v>94</v>
       </c>
@@ -16497,7 +16502,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="217" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:27">
       <c r="A217">
         <v>94</v>
       </c>
@@ -16574,7 +16579,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="218" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:27">
       <c r="A218">
         <v>94</v>
       </c>
@@ -16651,7 +16656,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="219" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:27">
       <c r="A219">
         <v>94</v>
       </c>
@@ -16716,7 +16721,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="220" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:27">
       <c r="A220">
         <v>94</v>
       </c>
@@ -16793,7 +16798,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="221" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:27">
       <c r="A221">
         <v>94</v>
       </c>
@@ -16873,7 +16878,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="222" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:27">
       <c r="A222">
         <v>94</v>
       </c>
@@ -16953,7 +16958,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="223" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:27">
       <c r="A223">
         <v>94</v>
       </c>
@@ -17033,7 +17038,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="224" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:27">
       <c r="A224">
         <v>94</v>
       </c>
@@ -17113,7 +17118,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="225" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:27">
       <c r="A225">
         <v>94</v>
       </c>
@@ -17193,7 +17198,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="226" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:27">
       <c r="A226">
         <v>94</v>
       </c>
@@ -17270,7 +17275,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="227" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:27">
       <c r="A227">
         <v>94</v>
       </c>
@@ -17350,7 +17355,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="228" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:27">
       <c r="A228">
         <v>94</v>
       </c>
@@ -17430,7 +17435,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="229" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:27">
       <c r="A229">
         <v>94</v>
       </c>
@@ -17510,7 +17515,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="230" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:27">
       <c r="A230">
         <v>94</v>
       </c>
@@ -17590,7 +17595,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="231" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:27">
       <c r="A231">
         <v>94</v>
       </c>
@@ -17670,7 +17675,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="232" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:27">
       <c r="A232">
         <v>94</v>
       </c>
@@ -17750,7 +17755,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="233" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:27">
       <c r="A233">
         <v>94</v>
       </c>
@@ -17830,7 +17835,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="234" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:27">
       <c r="A234">
         <v>94</v>
       </c>
@@ -17907,7 +17912,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="235" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:27">
       <c r="A235">
         <v>94</v>
       </c>
@@ -17987,7 +17992,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="236" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:27">
       <c r="A236">
         <v>94</v>
       </c>
@@ -18067,7 +18072,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="237" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:27">
       <c r="A237">
         <v>94</v>
       </c>
@@ -18144,7 +18149,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="238" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:27">
       <c r="A238">
         <v>94</v>
       </c>
@@ -18209,7 +18214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="239" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:27">
       <c r="A239">
         <v>94</v>
       </c>
@@ -18286,7 +18291,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="240" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:27">
       <c r="A240">
         <v>94</v>
       </c>
@@ -18351,7 +18356,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="241" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:27">
       <c r="A241">
         <v>94</v>
       </c>
@@ -18428,7 +18433,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="242" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:27">
       <c r="A242">
         <v>94</v>
       </c>
@@ -18508,7 +18513,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="243" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:27">
       <c r="A243">
         <v>94</v>
       </c>
@@ -18588,7 +18593,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="244" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:27">
       <c r="A244">
         <v>94</v>
       </c>
@@ -18668,7 +18673,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:27">
       <c r="A245">
         <v>94</v>
       </c>
@@ -18745,7 +18750,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="246" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:27">
       <c r="A246">
         <v>94</v>
       </c>
@@ -18822,7 +18827,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="247" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:27">
       <c r="A247">
         <v>94</v>
       </c>
@@ -18887,7 +18892,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="248" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:27">
       <c r="A248">
         <v>94</v>
       </c>
@@ -18952,7 +18957,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="249" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:27">
       <c r="A249">
         <v>94</v>
       </c>
@@ -19017,7 +19022,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="250" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:27">
       <c r="A250">
         <v>94</v>
       </c>
@@ -19082,7 +19087,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="251" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:27">
       <c r="A251">
         <v>94</v>
       </c>
@@ -19159,7 +19164,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="252" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:27">
       <c r="A252">
         <v>94</v>
       </c>
@@ -19236,7 +19241,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="253" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:27">
       <c r="A253">
         <v>94</v>
       </c>
@@ -19313,7 +19318,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="254" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:27">
       <c r="A254">
         <v>94</v>
       </c>
@@ -19390,7 +19395,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="255" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:27">
       <c r="A255">
         <v>94</v>
       </c>
@@ -19467,7 +19472,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="256" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:27">
       <c r="A256">
         <v>94</v>
       </c>
@@ -19547,7 +19552,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="257" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:27">
       <c r="A257">
         <v>94</v>
       </c>
@@ -19624,7 +19629,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="258" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:27">
       <c r="A258">
         <v>94</v>
       </c>
@@ -19707,7 +19712,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="259" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:27">
       <c r="A259">
         <v>94</v>
       </c>
@@ -19787,7 +19792,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="260" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:27">
       <c r="A260">
         <v>94</v>
       </c>
@@ -19864,7 +19869,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="261" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:27">
       <c r="A261">
         <v>94</v>
       </c>
@@ -19944,7 +19949,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="262" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:27">
       <c r="A262">
         <v>94</v>
       </c>
@@ -20024,7 +20029,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="263" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:27">
       <c r="A263">
         <v>94</v>
       </c>
@@ -20101,7 +20106,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="264" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:27">
       <c r="A264">
         <v>94</v>
       </c>
@@ -20166,7 +20171,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="265" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:27">
       <c r="A265">
         <v>94</v>
       </c>
@@ -20231,7 +20236,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="266" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:27">
       <c r="A266">
         <v>94</v>
       </c>
@@ -20311,7 +20316,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:27">
       <c r="A267">
         <v>94</v>
       </c>
@@ -20391,7 +20396,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="268" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:27">
       <c r="A268">
         <v>94</v>
       </c>
@@ -20471,7 +20476,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="269" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:27">
       <c r="A269">
         <v>94</v>
       </c>
@@ -20551,7 +20556,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="270" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:27">
       <c r="A270">
         <v>94</v>
       </c>
@@ -20631,7 +20636,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="271" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:27">
       <c r="A271">
         <v>94</v>
       </c>
@@ -20708,7 +20713,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="272" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:27">
       <c r="A272">
         <v>94</v>
       </c>
@@ -20785,7 +20790,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="273" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:27">
       <c r="A273">
         <v>94</v>
       </c>
@@ -20865,7 +20870,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="274" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:27">
       <c r="A274">
         <v>94</v>
       </c>
@@ -20945,7 +20950,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="275" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:27">
       <c r="A275">
         <v>94</v>
       </c>
@@ -21025,7 +21030,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="276" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:27">
       <c r="A276">
         <v>94</v>
       </c>
@@ -21102,7 +21107,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="277" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:27">
       <c r="A277">
         <v>94</v>
       </c>
@@ -21167,7 +21172,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="278" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:27">
       <c r="A278">
         <v>94</v>
       </c>
@@ -21244,7 +21249,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="279" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:27">
       <c r="A279">
         <v>94</v>
       </c>
@@ -21324,7 +21329,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="280" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:27">
       <c r="A280">
         <v>94</v>
       </c>
@@ -21401,7 +21406,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="281" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:27">
       <c r="A281">
         <v>94</v>
       </c>
@@ -21478,7 +21483,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="282" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:27">
       <c r="A282">
         <v>94</v>
       </c>
@@ -21555,7 +21560,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="283" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:27">
       <c r="A283">
         <v>94</v>
       </c>
@@ -21635,7 +21640,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="284" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:27">
       <c r="A284">
         <v>94</v>
       </c>
@@ -21712,7 +21717,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="285" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:27">
       <c r="A285">
         <v>94</v>
       </c>
@@ -21792,7 +21797,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="286" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:27">
       <c r="A286">
         <v>94</v>
       </c>
@@ -21872,7 +21877,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="287" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:27">
       <c r="A287">
         <v>94</v>
       </c>
@@ -21952,7 +21957,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="288" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:27">
       <c r="A288">
         <v>94</v>
       </c>
@@ -22032,7 +22037,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="289" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:27">
       <c r="A289">
         <v>94</v>
       </c>
@@ -22109,7 +22114,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="290" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:27">
       <c r="A290">
         <v>94</v>
       </c>
@@ -22186,7 +22191,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="291" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:27">
       <c r="A291">
         <v>94</v>
       </c>
@@ -22263,7 +22268,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="292" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:27">
       <c r="A292">
         <v>94</v>
       </c>
@@ -22340,7 +22345,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="293" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:27">
       <c r="A293">
         <v>94</v>
       </c>
@@ -22417,7 +22422,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="294" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:27">
       <c r="A294">
         <v>94</v>
       </c>
@@ -22497,7 +22502,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="295" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:27">
       <c r="A295">
         <v>94</v>
       </c>
@@ -22577,7 +22582,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="296" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:27">
       <c r="A296">
         <v>94</v>
       </c>
@@ -22654,7 +22659,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="297" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:27">
       <c r="A297">
         <v>94</v>
       </c>
@@ -22719,7 +22724,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="298" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:27">
       <c r="A298">
         <v>94</v>
       </c>
@@ -22796,7 +22801,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="299" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:27">
       <c r="A299">
         <v>94</v>
       </c>
@@ -22861,7 +22866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="300" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:27">
       <c r="A300">
         <v>94</v>
       </c>
@@ -22926,7 +22931,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="301" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:27">
       <c r="A301">
         <v>94</v>
       </c>
@@ -22991,7 +22996,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="302" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:27">
       <c r="A302">
         <v>94</v>
       </c>
@@ -23068,7 +23073,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="303" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:27">
       <c r="A303">
         <v>94</v>
       </c>
@@ -23133,7 +23138,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="304" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:27">
       <c r="A304">
         <v>94</v>
       </c>
@@ -23210,7 +23215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="305" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:27">
       <c r="A305">
         <v>94</v>
       </c>
@@ -23290,7 +23295,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="306" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:27">
       <c r="A306">
         <v>94</v>
       </c>
@@ -23370,7 +23375,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="307" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:27">
       <c r="A307">
         <v>94</v>
       </c>
@@ -23447,7 +23452,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="308" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:27">
       <c r="A308">
         <v>94</v>
       </c>
@@ -23524,7 +23529,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="309" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:27">
       <c r="A309">
         <v>94</v>
       </c>
@@ -23604,7 +23609,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="310" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:27">
       <c r="A310">
         <v>94</v>
       </c>
@@ -23684,7 +23689,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="311" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:27">
       <c r="A311">
         <v>94</v>
       </c>
@@ -23764,7 +23769,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="312" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:27">
       <c r="A312">
         <v>94</v>
       </c>
@@ -23847,7 +23852,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="313" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:27">
       <c r="A313">
         <v>94</v>
       </c>
@@ -23927,7 +23932,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="314" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:27">
       <c r="A314">
         <v>94</v>
       </c>
@@ -24004,7 +24009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:27">
       <c r="A315">
         <v>94</v>
       </c>
@@ -24081,7 +24086,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="316" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:27">
       <c r="A316">
         <v>94</v>
       </c>
@@ -24146,7 +24151,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:27">
       <c r="A317">
         <v>94</v>
       </c>
@@ -24211,7 +24216,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="318" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:27">
       <c r="A318">
         <v>94</v>
       </c>
@@ -24288,7 +24293,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="319" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:27">
       <c r="A319">
         <v>94</v>
       </c>
@@ -24365,7 +24370,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="320" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:27">
       <c r="A320">
         <v>94</v>
       </c>
@@ -24442,7 +24447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:27">
       <c r="A321">
         <v>94</v>
       </c>
@@ -24507,7 +24512,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="322" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:27">
       <c r="A322">
         <v>94</v>
       </c>
@@ -24572,7 +24577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="323" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:27">
       <c r="A323">
         <v>94</v>
       </c>
@@ -24649,7 +24654,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="324" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:27">
       <c r="A324">
         <v>94</v>
       </c>
@@ -24729,7 +24734,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="325" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:27">
       <c r="A325">
         <v>94</v>
       </c>
@@ -24809,7 +24814,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="326" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:27">
       <c r="A326">
         <v>94</v>
       </c>
@@ -24886,7 +24891,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="327" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:27">
       <c r="A327">
         <v>94</v>
       </c>
@@ -24951,7 +24956,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="328" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:27">
       <c r="A328">
         <v>94</v>
       </c>
@@ -25031,7 +25036,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="329" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:27">
       <c r="A329">
         <v>94</v>
       </c>
@@ -25096,7 +25101,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="330" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:27">
       <c r="A330">
         <v>94</v>
       </c>
@@ -25161,7 +25166,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="331" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:27">
       <c r="A331">
         <v>94</v>
       </c>
@@ -25238,7 +25243,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="332" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:27">
       <c r="A332">
         <v>94</v>
       </c>
@@ -25315,7 +25320,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="333" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:27">
       <c r="A333">
         <v>94</v>
       </c>
@@ -25392,7 +25397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="334" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:27">
       <c r="A334">
         <v>94</v>
       </c>
@@ -25469,7 +25474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:27">
       <c r="A335">
         <v>94</v>
       </c>
@@ -25546,7 +25551,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="336" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:27">
       <c r="A336">
         <v>94</v>
       </c>
@@ -25623,7 +25628,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="337" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:27">
       <c r="A337">
         <v>94</v>
       </c>
@@ -25700,7 +25705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="338" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:27">
       <c r="A338">
         <v>94</v>
       </c>
@@ -25774,7 +25779,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="339" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:27">
       <c r="A339">
         <v>94</v>
       </c>
@@ -25851,7 +25856,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="340" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:27">
       <c r="A340">
         <v>94</v>
       </c>
@@ -25934,7 +25939,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="341" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:27">
       <c r="A341">
         <v>94</v>
       </c>
@@ -26014,7 +26019,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="342" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:27">
       <c r="A342">
         <v>94</v>
       </c>
@@ -26091,7 +26096,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="343" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:27">
       <c r="A343">
         <v>94</v>
       </c>
@@ -26156,7 +26161,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="344" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:27">
       <c r="A344">
         <v>94</v>
       </c>
@@ -26233,7 +26238,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="345" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:27">
       <c r="A345">
         <v>94</v>
       </c>
@@ -26313,7 +26318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="346" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:27">
       <c r="A346">
         <v>94</v>
       </c>
@@ -26393,7 +26398,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="347" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:27">
       <c r="A347">
         <v>94</v>
       </c>
@@ -26470,7 +26475,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="348" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:27">
       <c r="A348">
         <v>94</v>
       </c>
@@ -26535,7 +26540,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="349" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:27">
       <c r="A349">
         <v>94</v>
       </c>
@@ -26600,7 +26605,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="350" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:27">
       <c r="A350">
         <v>94</v>
       </c>
@@ -26680,7 +26685,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="351" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:27">
       <c r="A351">
         <v>94</v>
       </c>
@@ -26757,7 +26762,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="352" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:27">
       <c r="A352">
         <v>94</v>
       </c>
@@ -26834,7 +26839,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="353" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:27">
       <c r="A353">
         <v>94</v>
       </c>
@@ -26899,7 +26904,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="354" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:27">
       <c r="A354">
         <v>94</v>
       </c>
@@ -26964,7 +26969,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="355" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:27">
       <c r="A355">
         <v>94</v>
       </c>
@@ -27029,7 +27034,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="356" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:27">
       <c r="A356">
         <v>94</v>
       </c>
@@ -27106,7 +27111,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:27">
       <c r="A357">
         <v>94</v>
       </c>
@@ -27183,7 +27188,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="358" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:27">
       <c r="A358">
         <v>94</v>
       </c>
@@ -27260,7 +27265,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="359" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:27">
       <c r="A359">
         <v>94</v>
       </c>
@@ -27337,7 +27342,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="360" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:27">
       <c r="A360">
         <v>94</v>
       </c>
@@ -27417,7 +27422,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="361" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:27">
       <c r="A361">
         <v>94</v>
       </c>
@@ -27497,7 +27502,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="362" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:27">
       <c r="A362">
         <v>94</v>
       </c>
@@ -27574,7 +27579,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="363" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:27">
       <c r="A363">
         <v>94</v>
       </c>
@@ -27654,7 +27659,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="364" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:27">
       <c r="A364">
         <v>94</v>
       </c>
@@ -27731,7 +27736,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="365" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:27">
       <c r="A365">
         <v>94</v>
       </c>
@@ -27806,1441 +27811,6 @@
       </c>
       <c r="AA365">
         <v>291</v>
-      </c>
-    </row>
-    <row r="366" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F366">
-        <v>14</v>
-      </c>
-      <c r="G366">
-        <v>6</v>
-      </c>
-      <c r="H366">
-        <v>-2</v>
-      </c>
-      <c r="I366">
-        <v>0</v>
-      </c>
-      <c r="J366">
-        <v>-5</v>
-      </c>
-      <c r="K366">
-        <v>-9</v>
-      </c>
-      <c r="L366">
-        <v>64</v>
-      </c>
-      <c r="M366">
-        <v>41</v>
-      </c>
-      <c r="N366">
-        <v>25</v>
-      </c>
-      <c r="O366">
-        <v>1019</v>
-      </c>
-      <c r="P366">
-        <v>1016</v>
-      </c>
-      <c r="Q366">
-        <v>1013</v>
-      </c>
-      <c r="R366">
-        <v>10</v>
-      </c>
-      <c r="S366">
-        <v>10</v>
-      </c>
-      <c r="T366">
-        <v>10</v>
-      </c>
-      <c r="U366">
-        <v>29</v>
-      </c>
-      <c r="V366">
-        <v>16</v>
-      </c>
-      <c r="X366">
-        <v>0</v>
-      </c>
-      <c r="Y366">
-        <v>3</v>
-      </c>
-      <c r="AA366">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="367" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F367">
-        <v>17</v>
-      </c>
-      <c r="G367">
-        <v>12</v>
-      </c>
-      <c r="H367">
-        <v>5</v>
-      </c>
-      <c r="I367">
-        <v>3</v>
-      </c>
-      <c r="J367">
-        <v>-1</v>
-      </c>
-      <c r="K367">
-        <v>-3</v>
-      </c>
-      <c r="L367">
-        <v>87</v>
-      </c>
-      <c r="M367">
-        <v>45</v>
-      </c>
-      <c r="N367">
-        <v>26</v>
-      </c>
-      <c r="O367">
-        <v>1016</v>
-      </c>
-      <c r="P367">
-        <v>1014</v>
-      </c>
-      <c r="Q367">
-        <v>1013</v>
-      </c>
-      <c r="R367">
-        <v>10</v>
-      </c>
-      <c r="S367">
-        <v>9</v>
-      </c>
-      <c r="T367">
-        <v>8</v>
-      </c>
-      <c r="U367">
-        <v>32</v>
-      </c>
-      <c r="V367">
-        <v>16</v>
-      </c>
-      <c r="X367">
-        <v>0</v>
-      </c>
-      <c r="Y367">
-        <v>3</v>
-      </c>
-      <c r="Z367" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA367">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="368" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="F368">
-        <v>11</v>
-      </c>
-      <c r="G368">
-        <v>6</v>
-      </c>
-      <c r="H368">
-        <v>2</v>
-      </c>
-      <c r="I368">
-        <v>3</v>
-      </c>
-      <c r="J368">
-        <v>0</v>
-      </c>
-      <c r="K368">
-        <v>-5</v>
-      </c>
-      <c r="L368">
-        <v>100</v>
-      </c>
-      <c r="M368">
-        <v>68</v>
-      </c>
-      <c r="N368">
-        <v>35</v>
-      </c>
-      <c r="O368">
-        <v>1016</v>
-      </c>
-      <c r="P368">
-        <v>1014</v>
-      </c>
-      <c r="Q368">
-        <v>1011</v>
-      </c>
-      <c r="R368">
-        <v>10</v>
-      </c>
-      <c r="S368">
-        <v>10</v>
-      </c>
-      <c r="T368">
-        <v>8</v>
-      </c>
-      <c r="U368">
-        <v>26</v>
-      </c>
-      <c r="V368">
-        <v>11</v>
-      </c>
-      <c r="X368">
-        <v>0</v>
-      </c>
-      <c r="Y368">
-        <v>3</v>
-      </c>
-      <c r="Z368" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA368">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="369" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F369">
-        <v>11</v>
-      </c>
-      <c r="G369">
-        <v>6</v>
-      </c>
-      <c r="H369">
-        <v>0</v>
-      </c>
-      <c r="I369">
-        <v>-1</v>
-      </c>
-      <c r="J369">
-        <v>-4</v>
-      </c>
-      <c r="K369">
-        <v>-7</v>
-      </c>
-      <c r="L369">
-        <v>87</v>
-      </c>
-      <c r="M369">
-        <v>51</v>
-      </c>
-      <c r="N369">
-        <v>28</v>
-      </c>
-      <c r="O369">
-        <v>1021</v>
-      </c>
-      <c r="P369">
-        <v>1017</v>
-      </c>
-      <c r="Q369">
-        <v>1015</v>
-      </c>
-      <c r="R369">
-        <v>10</v>
-      </c>
-      <c r="S369">
-        <v>10</v>
-      </c>
-      <c r="T369">
-        <v>10</v>
-      </c>
-      <c r="U369">
-        <v>32</v>
-      </c>
-      <c r="V369">
-        <v>18</v>
-      </c>
-      <c r="X369">
-        <v>0</v>
-      </c>
-      <c r="Y369">
-        <v>2</v>
-      </c>
-      <c r="AA369">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="370" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F370">
-        <v>17</v>
-      </c>
-      <c r="G370">
-        <v>7</v>
-      </c>
-      <c r="H370">
-        <v>-2</v>
-      </c>
-      <c r="I370">
-        <v>0</v>
-      </c>
-      <c r="J370">
-        <v>-3</v>
-      </c>
-      <c r="K370">
-        <v>-4</v>
-      </c>
-      <c r="L370">
-        <v>86</v>
-      </c>
-      <c r="M370">
-        <v>56</v>
-      </c>
-      <c r="N370">
-        <v>27</v>
-      </c>
-      <c r="O370">
-        <v>1024</v>
-      </c>
-      <c r="P370">
-        <v>1023</v>
-      </c>
-      <c r="Q370">
-        <v>1021</v>
-      </c>
-      <c r="R370">
-        <v>10</v>
-      </c>
-      <c r="S370">
-        <v>10</v>
-      </c>
-      <c r="T370">
-        <v>10</v>
-      </c>
-      <c r="U370">
-        <v>19</v>
-      </c>
-      <c r="V370">
-        <v>8</v>
-      </c>
-      <c r="X370">
-        <v>0</v>
-      </c>
-      <c r="Y370">
-        <v>6</v>
-      </c>
-      <c r="AA370">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="371" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F371">
-        <v>18</v>
-      </c>
-      <c r="G371">
-        <v>9</v>
-      </c>
-      <c r="H371">
-        <v>1</v>
-      </c>
-      <c r="I371">
-        <v>1</v>
-      </c>
-      <c r="J371">
-        <v>-3</v>
-      </c>
-      <c r="K371">
-        <v>-7</v>
-      </c>
-      <c r="L371">
-        <v>75</v>
-      </c>
-      <c r="M371">
-        <v>43</v>
-      </c>
-      <c r="N371">
-        <v>18</v>
-      </c>
-      <c r="O371">
-        <v>1024</v>
-      </c>
-      <c r="P371">
-        <v>1022</v>
-      </c>
-      <c r="Q371">
-        <v>1020</v>
-      </c>
-      <c r="U371">
-        <v>26</v>
-      </c>
-      <c r="V371">
-        <v>10</v>
-      </c>
-      <c r="X371">
-        <v>0</v>
-      </c>
-      <c r="AA371">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="372" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F372">
-        <v>13</v>
-      </c>
-      <c r="G372">
-        <v>11</v>
-      </c>
-      <c r="H372">
-        <v>9</v>
-      </c>
-      <c r="I372">
-        <v>3</v>
-      </c>
-      <c r="J372">
-        <v>0</v>
-      </c>
-      <c r="K372">
-        <v>-5</v>
-      </c>
-      <c r="L372">
-        <v>66</v>
-      </c>
-      <c r="M372">
-        <v>45</v>
-      </c>
-      <c r="N372">
-        <v>29</v>
-      </c>
-      <c r="O372">
-        <v>1022</v>
-      </c>
-      <c r="P372">
-        <v>1020</v>
-      </c>
-      <c r="Q372">
-        <v>1018</v>
-      </c>
-      <c r="R372">
-        <v>10</v>
-      </c>
-      <c r="S372">
-        <v>10</v>
-      </c>
-      <c r="T372">
-        <v>8</v>
-      </c>
-      <c r="U372">
-        <v>35</v>
-      </c>
-      <c r="V372">
-        <v>19</v>
-      </c>
-      <c r="X372">
-        <v>0</v>
-      </c>
-      <c r="Y372">
-        <v>8</v>
-      </c>
-      <c r="AA372">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="373" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F373">
-        <v>11</v>
-      </c>
-      <c r="G373">
-        <v>9</v>
-      </c>
-      <c r="H373">
-        <v>8</v>
-      </c>
-      <c r="I373">
-        <v>5</v>
-      </c>
-      <c r="J373">
-        <v>4</v>
-      </c>
-      <c r="K373">
-        <v>2</v>
-      </c>
-      <c r="L373">
-        <v>76</v>
-      </c>
-      <c r="M373">
-        <v>69</v>
-      </c>
-      <c r="N373">
-        <v>54</v>
-      </c>
-      <c r="O373">
-        <v>1017</v>
-      </c>
-      <c r="P373">
-        <v>1013</v>
-      </c>
-      <c r="Q373">
-        <v>1010</v>
-      </c>
-      <c r="R373">
-        <v>10</v>
-      </c>
-      <c r="S373">
-        <v>9</v>
-      </c>
-      <c r="T373">
-        <v>8</v>
-      </c>
-      <c r="U373">
-        <v>35</v>
-      </c>
-      <c r="V373">
-        <v>19</v>
-      </c>
-      <c r="X373">
-        <v>0</v>
-      </c>
-      <c r="Y373">
-        <v>7</v>
-      </c>
-      <c r="Z373" t="s">
-        <v>2</v>
-      </c>
-      <c r="AA373">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="374" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F374">
-        <v>13</v>
-      </c>
-      <c r="G374">
-        <v>8</v>
-      </c>
-      <c r="H374">
-        <v>4</v>
-      </c>
-      <c r="I374">
-        <v>7</v>
-      </c>
-      <c r="J374">
-        <v>3</v>
-      </c>
-      <c r="K374">
-        <v>0</v>
-      </c>
-      <c r="L374">
-        <v>100</v>
-      </c>
-      <c r="M374">
-        <v>70</v>
-      </c>
-      <c r="N374">
-        <v>47</v>
-      </c>
-      <c r="O374">
-        <v>1014</v>
-      </c>
-      <c r="P374">
-        <v>1012</v>
-      </c>
-      <c r="Q374">
-        <v>1008</v>
-      </c>
-      <c r="R374">
-        <v>10</v>
-      </c>
-      <c r="S374">
-        <v>8</v>
-      </c>
-      <c r="T374">
-        <v>4</v>
-      </c>
-      <c r="U374">
-        <v>32</v>
-      </c>
-      <c r="V374">
-        <v>16</v>
-      </c>
-      <c r="X374">
-        <v>0</v>
-      </c>
-      <c r="Y374">
-        <v>5</v>
-      </c>
-      <c r="Z374" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA374">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="375" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F375">
-        <v>12</v>
-      </c>
-      <c r="G375">
-        <v>7</v>
-      </c>
-      <c r="H375">
-        <v>3</v>
-      </c>
-      <c r="I375">
-        <v>4</v>
-      </c>
-      <c r="J375">
-        <v>-1</v>
-      </c>
-      <c r="K375">
-        <v>-3</v>
-      </c>
-      <c r="L375">
-        <v>100</v>
-      </c>
-      <c r="M375">
-        <v>58</v>
-      </c>
-      <c r="N375">
-        <v>35</v>
-      </c>
-      <c r="O375">
-        <v>1014</v>
-      </c>
-      <c r="P375">
-        <v>1012</v>
-      </c>
-      <c r="Q375">
-        <v>1009</v>
-      </c>
-      <c r="R375">
-        <v>10</v>
-      </c>
-      <c r="S375">
-        <v>9</v>
-      </c>
-      <c r="T375">
-        <v>4</v>
-      </c>
-      <c r="U375">
-        <v>32</v>
-      </c>
-      <c r="V375">
-        <v>18</v>
-      </c>
-      <c r="X375">
-        <v>0</v>
-      </c>
-      <c r="Y375">
-        <v>4</v>
-      </c>
-      <c r="Z375" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA375">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="376" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F376">
-        <v>11</v>
-      </c>
-      <c r="G376">
-        <v>6</v>
-      </c>
-      <c r="H376">
-        <v>1</v>
-      </c>
-      <c r="I376">
-        <v>-1</v>
-      </c>
-      <c r="J376">
-        <v>-4</v>
-      </c>
-      <c r="K376">
-        <v>-6</v>
-      </c>
-      <c r="L376">
-        <v>75</v>
-      </c>
-      <c r="M376">
-        <v>47</v>
-      </c>
-      <c r="N376">
-        <v>30</v>
-      </c>
-      <c r="O376">
-        <v>1018</v>
-      </c>
-      <c r="P376">
-        <v>1017</v>
-      </c>
-      <c r="Q376">
-        <v>1014</v>
-      </c>
-      <c r="R376">
-        <v>10</v>
-      </c>
-      <c r="S376">
-        <v>10</v>
-      </c>
-      <c r="T376">
-        <v>10</v>
-      </c>
-      <c r="U376">
-        <v>32</v>
-      </c>
-      <c r="V376">
-        <v>16</v>
-      </c>
-      <c r="X376">
-        <v>0</v>
-      </c>
-      <c r="Y376">
-        <v>2</v>
-      </c>
-      <c r="AA376">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="377" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F377">
-        <v>13</v>
-      </c>
-      <c r="G377">
-        <v>4</v>
-      </c>
-      <c r="H377">
-        <v>-3</v>
-      </c>
-      <c r="I377">
-        <v>0</v>
-      </c>
-      <c r="J377">
-        <v>-4</v>
-      </c>
-      <c r="K377">
-        <v>-9</v>
-      </c>
-      <c r="L377">
-        <v>86</v>
-      </c>
-      <c r="M377">
-        <v>62</v>
-      </c>
-      <c r="N377">
-        <v>22</v>
-      </c>
-      <c r="O377">
-        <v>1018</v>
-      </c>
-      <c r="P377">
-        <v>1017</v>
-      </c>
-      <c r="Q377">
-        <v>1013</v>
-      </c>
-      <c r="R377">
-        <v>10</v>
-      </c>
-      <c r="S377">
-        <v>10</v>
-      </c>
-      <c r="T377">
-        <v>7</v>
-      </c>
-      <c r="U377">
-        <v>26</v>
-      </c>
-      <c r="V377">
-        <v>8</v>
-      </c>
-      <c r="X377">
-        <v>0</v>
-      </c>
-      <c r="Y377">
-        <v>4</v>
-      </c>
-      <c r="AA377">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="378" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F378">
-        <v>3</v>
-      </c>
-      <c r="G378">
-        <v>1</v>
-      </c>
-      <c r="H378">
-        <v>0</v>
-      </c>
-      <c r="I378">
-        <v>1</v>
-      </c>
-      <c r="J378">
-        <v>-1</v>
-      </c>
-      <c r="K378">
-        <v>-3</v>
-      </c>
-      <c r="L378">
-        <v>100</v>
-      </c>
-      <c r="M378">
-        <v>87</v>
-      </c>
-      <c r="N378">
-        <v>70</v>
-      </c>
-      <c r="O378">
-        <v>1021</v>
-      </c>
-      <c r="P378">
-        <v>1018</v>
-      </c>
-      <c r="Q378">
-        <v>1015</v>
-      </c>
-      <c r="R378">
-        <v>10</v>
-      </c>
-      <c r="S378">
-        <v>7</v>
-      </c>
-      <c r="T378">
-        <v>2</v>
-      </c>
-      <c r="U378">
-        <v>26</v>
-      </c>
-      <c r="V378">
-        <v>10</v>
-      </c>
-      <c r="X378">
-        <v>0</v>
-      </c>
-      <c r="Y378">
-        <v>7</v>
-      </c>
-      <c r="Z378" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA378">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="379" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F379">
-        <v>11</v>
-      </c>
-      <c r="G379">
-        <v>3</v>
-      </c>
-      <c r="H379">
-        <v>-5</v>
-      </c>
-      <c r="I379">
-        <v>-1</v>
-      </c>
-      <c r="J379">
-        <v>-4</v>
-      </c>
-      <c r="K379">
-        <v>-7</v>
-      </c>
-      <c r="L379">
-        <v>93</v>
-      </c>
-      <c r="M379">
-        <v>62</v>
-      </c>
-      <c r="N379">
-        <v>30</v>
-      </c>
-      <c r="O379">
-        <v>1023</v>
-      </c>
-      <c r="P379">
-        <v>1021</v>
-      </c>
-      <c r="Q379">
-        <v>1019</v>
-      </c>
-      <c r="R379">
-        <v>10</v>
-      </c>
-      <c r="S379">
-        <v>10</v>
-      </c>
-      <c r="T379">
-        <v>10</v>
-      </c>
-      <c r="U379">
-        <v>14</v>
-      </c>
-      <c r="V379">
-        <v>5</v>
-      </c>
-      <c r="X379">
-        <v>0</v>
-      </c>
-      <c r="Y379">
-        <v>1</v>
-      </c>
-      <c r="AA379">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="380" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F380">
-        <v>14</v>
-      </c>
-      <c r="G380">
-        <v>6</v>
-      </c>
-      <c r="H380">
-        <v>-2</v>
-      </c>
-      <c r="I380">
-        <v>-2</v>
-      </c>
-      <c r="J380">
-        <v>-4</v>
-      </c>
-      <c r="K380">
-        <v>-8</v>
-      </c>
-      <c r="L380">
-        <v>81</v>
-      </c>
-      <c r="M380">
-        <v>49</v>
-      </c>
-      <c r="N380">
-        <v>23</v>
-      </c>
-      <c r="O380">
-        <v>1020</v>
-      </c>
-      <c r="P380">
-        <v>1018</v>
-      </c>
-      <c r="Q380">
-        <v>1016</v>
-      </c>
-      <c r="R380">
-        <v>10</v>
-      </c>
-      <c r="S380">
-        <v>10</v>
-      </c>
-      <c r="T380">
-        <v>10</v>
-      </c>
-      <c r="U380">
-        <v>29</v>
-      </c>
-      <c r="V380">
-        <v>11</v>
-      </c>
-      <c r="X380">
-        <v>0</v>
-      </c>
-      <c r="Y380">
-        <v>3</v>
-      </c>
-      <c r="AA380">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="381" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F381">
-        <v>15</v>
-      </c>
-      <c r="G381">
-        <v>8</v>
-      </c>
-      <c r="H381">
-        <v>2</v>
-      </c>
-      <c r="I381">
-        <v>-2</v>
-      </c>
-      <c r="J381">
-        <v>-4</v>
-      </c>
-      <c r="K381">
-        <v>-5</v>
-      </c>
-      <c r="L381">
-        <v>70</v>
-      </c>
-      <c r="M381">
-        <v>40</v>
-      </c>
-      <c r="N381">
-        <v>27</v>
-      </c>
-      <c r="O381">
-        <v>1018</v>
-      </c>
-      <c r="P381">
-        <v>1017</v>
-      </c>
-      <c r="Q381">
-        <v>1016</v>
-      </c>
-      <c r="R381">
-        <v>10</v>
-      </c>
-      <c r="S381">
-        <v>10</v>
-      </c>
-      <c r="T381">
-        <v>10</v>
-      </c>
-      <c r="U381">
-        <v>29</v>
-      </c>
-      <c r="V381">
-        <v>16</v>
-      </c>
-      <c r="X381">
-        <v>0</v>
-      </c>
-      <c r="Y381">
-        <v>2</v>
-      </c>
-      <c r="AA381">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="382" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F382">
-        <v>17</v>
-      </c>
-      <c r="G382">
-        <v>9</v>
-      </c>
-      <c r="H382">
-        <v>1</v>
-      </c>
-      <c r="I382">
-        <v>-1</v>
-      </c>
-      <c r="J382">
-        <v>-3</v>
-      </c>
-      <c r="K382">
-        <v>-4</v>
-      </c>
-      <c r="L382">
-        <v>75</v>
-      </c>
-      <c r="M382">
-        <v>43</v>
-      </c>
-      <c r="N382">
-        <v>26</v>
-      </c>
-      <c r="O382">
-        <v>1018</v>
-      </c>
-      <c r="P382">
-        <v>1017</v>
-      </c>
-      <c r="Q382">
-        <v>1015</v>
-      </c>
-      <c r="R382">
-        <v>10</v>
-      </c>
-      <c r="S382">
-        <v>10</v>
-      </c>
-      <c r="T382">
-        <v>10</v>
-      </c>
-      <c r="U382">
-        <v>23</v>
-      </c>
-      <c r="V382">
-        <v>13</v>
-      </c>
-      <c r="X382">
-        <v>0</v>
-      </c>
-      <c r="Y382">
-        <v>3</v>
-      </c>
-      <c r="AA382">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="383" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F383">
-        <v>18</v>
-      </c>
-      <c r="G383">
-        <v>9</v>
-      </c>
-      <c r="H383">
-        <v>1</v>
-      </c>
-      <c r="I383">
-        <v>0</v>
-      </c>
-      <c r="J383">
-        <v>-3</v>
-      </c>
-      <c r="K383">
-        <v>-6</v>
-      </c>
-      <c r="L383">
-        <v>81</v>
-      </c>
-      <c r="M383">
-        <v>45</v>
-      </c>
-      <c r="N383">
-        <v>19</v>
-      </c>
-      <c r="O383">
-        <v>1018</v>
-      </c>
-      <c r="P383">
-        <v>1017</v>
-      </c>
-      <c r="Q383">
-        <v>1016</v>
-      </c>
-      <c r="R383">
-        <v>10</v>
-      </c>
-      <c r="S383">
-        <v>10</v>
-      </c>
-      <c r="T383">
-        <v>10</v>
-      </c>
-      <c r="U383">
-        <v>29</v>
-      </c>
-      <c r="V383">
-        <v>10</v>
-      </c>
-      <c r="X383">
-        <v>0</v>
-      </c>
-      <c r="Y383">
-        <v>2</v>
-      </c>
-      <c r="AA383">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="384" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F384">
-        <v>18</v>
-      </c>
-      <c r="G384">
-        <v>10</v>
-      </c>
-      <c r="H384">
-        <v>2</v>
-      </c>
-      <c r="I384">
-        <v>3</v>
-      </c>
-      <c r="J384">
-        <v>-1</v>
-      </c>
-      <c r="K384">
-        <v>-4</v>
-      </c>
-      <c r="L384">
-        <v>81</v>
-      </c>
-      <c r="M384">
-        <v>47</v>
-      </c>
-      <c r="N384">
-        <v>26</v>
-      </c>
-      <c r="O384">
-        <v>1020</v>
-      </c>
-      <c r="P384">
-        <v>1019</v>
-      </c>
-      <c r="Q384">
-        <v>1017</v>
-      </c>
-      <c r="R384">
-        <v>10</v>
-      </c>
-      <c r="S384">
-        <v>10</v>
-      </c>
-      <c r="T384">
-        <v>10</v>
-      </c>
-      <c r="U384">
-        <v>26</v>
-      </c>
-      <c r="V384">
-        <v>8</v>
-      </c>
-      <c r="X384">
-        <v>0</v>
-      </c>
-      <c r="Y384">
-        <v>3</v>
-      </c>
-      <c r="AA384">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="385" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F385">
-        <v>17</v>
-      </c>
-      <c r="G385">
-        <v>10</v>
-      </c>
-      <c r="H385">
-        <v>3</v>
-      </c>
-      <c r="I385">
-        <v>4</v>
-      </c>
-      <c r="J385">
-        <v>1</v>
-      </c>
-      <c r="K385">
-        <v>-2</v>
-      </c>
-      <c r="L385">
-        <v>76</v>
-      </c>
-      <c r="M385">
-        <v>52</v>
-      </c>
-      <c r="N385">
-        <v>29</v>
-      </c>
-      <c r="O385">
-        <v>1022</v>
-      </c>
-      <c r="P385">
-        <v>1020</v>
-      </c>
-      <c r="Q385">
-        <v>1018</v>
-      </c>
-      <c r="R385">
-        <v>10</v>
-      </c>
-      <c r="S385">
-        <v>10</v>
-      </c>
-      <c r="T385">
-        <v>10</v>
-      </c>
-      <c r="U385">
-        <v>26</v>
-      </c>
-      <c r="V385">
-        <v>6</v>
-      </c>
-      <c r="X385">
-        <v>0</v>
-      </c>
-      <c r="Y385">
-        <v>3</v>
-      </c>
-      <c r="AA385">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="386" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F386">
-        <v>17</v>
-      </c>
-      <c r="G386">
-        <v>9</v>
-      </c>
-      <c r="H386">
-        <v>2</v>
-      </c>
-      <c r="I386">
-        <v>4</v>
-      </c>
-      <c r="J386">
-        <v>2</v>
-      </c>
-      <c r="K386">
-        <v>1</v>
-      </c>
-      <c r="L386">
-        <v>93</v>
-      </c>
-      <c r="M386">
-        <v>60</v>
-      </c>
-      <c r="N386">
-        <v>34</v>
-      </c>
-      <c r="O386">
-        <v>1021</v>
-      </c>
-      <c r="P386">
-        <v>1020</v>
-      </c>
-      <c r="Q386">
-        <v>1018</v>
-      </c>
-      <c r="R386">
-        <v>10</v>
-      </c>
-      <c r="S386">
-        <v>10</v>
-      </c>
-      <c r="T386">
-        <v>10</v>
-      </c>
-      <c r="U386">
-        <v>29</v>
-      </c>
-      <c r="V386">
-        <v>8</v>
-      </c>
-      <c r="X386">
-        <v>0</v>
-      </c>
-      <c r="Y386">
-        <v>4</v>
-      </c>
-      <c r="AA386">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="387" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F387">
-        <v>17</v>
-      </c>
-      <c r="G387">
-        <v>9</v>
-      </c>
-      <c r="H387">
-        <v>2</v>
-      </c>
-      <c r="I387">
-        <v>5</v>
-      </c>
-      <c r="J387">
-        <v>3</v>
-      </c>
-      <c r="K387">
-        <v>-1</v>
-      </c>
-      <c r="L387">
-        <v>87</v>
-      </c>
-      <c r="M387">
-        <v>59</v>
-      </c>
-      <c r="N387">
-        <v>39</v>
-      </c>
-      <c r="O387">
-        <v>1021</v>
-      </c>
-      <c r="P387">
-        <v>1020</v>
-      </c>
-      <c r="Q387">
-        <v>1019</v>
-      </c>
-      <c r="R387">
-        <v>10</v>
-      </c>
-      <c r="S387">
-        <v>10</v>
-      </c>
-      <c r="T387">
-        <v>10</v>
-      </c>
-      <c r="U387">
-        <v>32</v>
-      </c>
-      <c r="V387">
-        <v>8</v>
-      </c>
-      <c r="X387">
-        <v>0</v>
-      </c>
-      <c r="Y387">
-        <v>6</v>
-      </c>
-      <c r="AA387">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="388" spans="6:27" x14ac:dyDescent="0.2">
-      <c r="F388">
-        <v>15</v>
-      </c>
-      <c r="G388">
-        <v>9</v>
-      </c>
-      <c r="H388">
-        <v>4</v>
-      </c>
-      <c r="I388">
-        <v>9</v>
-      </c>
-      <c r="J388">
-        <v>6</v>
-      </c>
-      <c r="K388">
-        <v>4</v>
-      </c>
-      <c r="L388">
-        <v>100</v>
-      </c>
-      <c r="M388">
-        <v>76</v>
-      </c>
-      <c r="N388">
-        <v>51</v>
-      </c>
-      <c r="O388">
-        <v>1021</v>
-      </c>
-      <c r="P388">
-        <v>1019</v>
-      </c>
-      <c r="Q388">
-        <v>1016</v>
-      </c>
-      <c r="R388">
-        <v>10</v>
-      </c>
-      <c r="S388">
-        <v>9</v>
-      </c>
-      <c r="T388">
-        <v>4</v>
-      </c>
-      <c r="U388">
-        <v>26</v>
-      </c>
-      <c r="V388">
-        <v>11</v>
-      </c>
-      <c r="X388">
-        <v>0</v>
-      </c>
-      <c r="Y388">
-        <v>6</v>
-      </c>
-      <c r="Z388" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA388">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -29254,7 +27824,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29266,7 +27836,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
